--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.819183579051325</v>
+        <v>1.809441918582433</v>
       </c>
       <c r="C2">
-        <v>1.777646533408459</v>
+        <v>1.773799324762276</v>
       </c>
       <c r="D2">
-        <v>6.423518919001897</v>
+        <v>6.212147121844095</v>
       </c>
       <c r="E2">
-        <v>1.706464826454403</v>
+        <v>1.700078601593715</v>
       </c>
       <c r="F2">
-        <v>1.817939111162123</v>
+        <v>1.807629892617897</v>
       </c>
       <c r="G2">
-        <v>2.010686581087004</v>
+        <v>2.002151662949331</v>
       </c>
       <c r="H2">
-        <v>1.707017846296745</v>
+        <v>1.700317937929734</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.829810382535806</v>
+        <v>1.820836472639407</v>
       </c>
       <c r="C3">
-        <v>1.794730181062973</v>
+        <v>1.790830877570518</v>
       </c>
       <c r="D3">
-        <v>4.971567083707924</v>
+        <v>4.809282045285278</v>
       </c>
       <c r="E3">
-        <v>1.709113665065556</v>
+        <v>1.703624045046675</v>
       </c>
       <c r="F3">
-        <v>1.826737167141431</v>
+        <v>1.817304492547184</v>
       </c>
       <c r="G3">
-        <v>1.979074113303112</v>
+        <v>1.971045113597998</v>
       </c>
       <c r="H3">
-        <v>1.708951584569917</v>
+        <v>1.703193982803089</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.792082093669993</v>
+        <v>1.782668010042132</v>
       </c>
       <c r="C4">
-        <v>1.866309367515333</v>
+        <v>1.860444782376231</v>
       </c>
       <c r="D4">
-        <v>5.791391787711279</v>
+        <v>5.544570533031403</v>
       </c>
       <c r="E4">
-        <v>1.695781271370396</v>
+        <v>1.689118343792704</v>
       </c>
       <c r="F4">
-        <v>1.791932319049202</v>
+        <v>1.782010133492829</v>
       </c>
       <c r="G4">
-        <v>2.0041810906114</v>
+        <v>1.993043150492126</v>
       </c>
       <c r="H4">
-        <v>1.696536882978921</v>
+        <v>1.689607354824597</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.82695462591286</v>
+        <v>1.817028306682256</v>
       </c>
       <c r="C5">
-        <v>2.00222364455488</v>
+        <v>1.998626836058858</v>
       </c>
       <c r="D5">
-        <v>3.089194884419286</v>
+        <v>2.934576195968682</v>
       </c>
       <c r="E5">
-        <v>1.7121455351616</v>
+        <v>1.705623931229836</v>
       </c>
       <c r="F5">
-        <v>1.823369868681284</v>
+        <v>1.812988199412726</v>
       </c>
       <c r="G5">
-        <v>2.031435382038775</v>
+        <v>2.020387323550141</v>
       </c>
       <c r="H5">
-        <v>1.711819436832543</v>
+        <v>1.705018684914926</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.834212240675051</v>
+        <v>1.823976775771101</v>
       </c>
       <c r="C6">
-        <v>2.000669939856117</v>
+        <v>1.996492174193518</v>
       </c>
       <c r="D6">
-        <v>0.8828966962370574</v>
+        <v>0.8753565019908757</v>
       </c>
       <c r="E6">
-        <v>1.716447214179883</v>
+        <v>1.709811521561945</v>
       </c>
       <c r="F6">
-        <v>1.830665131808651</v>
+        <v>1.819960065524298</v>
       </c>
       <c r="G6">
-        <v>1.882346305176511</v>
+        <v>1.875463510908506</v>
       </c>
       <c r="H6">
-        <v>1.715971891455109</v>
+        <v>1.709059898859096</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.813429498371163</v>
+        <v>1.804522491512453</v>
       </c>
       <c r="C7">
-        <v>2.086232234693673</v>
+        <v>2.082638963899223</v>
       </c>
       <c r="D7">
-        <v>1.240568187660182</v>
+        <v>1.219932049956222</v>
       </c>
       <c r="E7">
-        <v>1.711567351997812</v>
+        <v>1.705657750267797</v>
       </c>
       <c r="F7">
-        <v>1.809940747607632</v>
+        <v>1.800608292030371</v>
       </c>
       <c r="G7">
-        <v>1.967958818102869</v>
+        <v>1.961212458634178</v>
       </c>
       <c r="H7">
-        <v>1.711167189942013</v>
+        <v>1.705004603960501</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.825386326719689</v>
+        <v>1.815118152670409</v>
       </c>
       <c r="C8">
-        <v>1.336387960279253</v>
+        <v>1.331268593591207</v>
       </c>
       <c r="D8">
-        <v>1.988990215703755</v>
+        <v>1.962454242750496</v>
       </c>
       <c r="E8">
-        <v>1.698343870465321</v>
+        <v>1.691569675101092</v>
       </c>
       <c r="F8">
-        <v>1.821814536937141</v>
+        <v>1.811121680113447</v>
       </c>
       <c r="G8">
-        <v>1.506902702477445</v>
+        <v>1.497617726625957</v>
       </c>
       <c r="H8">
-        <v>1.698137688113475</v>
+        <v>1.691113062267858</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.829115929549631</v>
+        <v>1.820110013471357</v>
       </c>
       <c r="C9">
-        <v>1.866576928441346</v>
+        <v>1.862728241502911</v>
       </c>
       <c r="D9">
-        <v>1.51341112896789</v>
+        <v>1.489277673447328</v>
       </c>
       <c r="E9">
-        <v>1.704845761701069</v>
+        <v>1.699117520271848</v>
       </c>
       <c r="F9">
-        <v>1.826466672916639</v>
+        <v>1.816956055849428</v>
       </c>
       <c r="G9">
-        <v>1.820382834624698</v>
+        <v>1.812437534362181</v>
       </c>
       <c r="H9">
-        <v>1.705258883232765</v>
+        <v>1.699213878649833</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.584448622075486</v>
+        <v>1.57578486270646</v>
       </c>
       <c r="C10">
-        <v>2.091101641754152</v>
+        <v>2.084409928598445</v>
       </c>
       <c r="D10">
-        <v>3.193592028774956</v>
+        <v>3.052325732473214</v>
       </c>
       <c r="E10">
-        <v>1.672222874972743</v>
+        <v>1.664463245616165</v>
       </c>
       <c r="F10">
-        <v>1.593817604667426</v>
+        <v>1.584180934600336</v>
       </c>
       <c r="G10">
-        <v>2.045888639696261</v>
+        <v>2.033644326230511</v>
       </c>
       <c r="H10">
-        <v>1.675369026510009</v>
+        <v>1.667191889118646</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.534031358452496</v>
+        <v>1.524747233310899</v>
       </c>
       <c r="C11">
-        <v>2.111054850538951</v>
+        <v>2.106358068430188</v>
       </c>
       <c r="D11">
-        <v>2.583196150884716</v>
+        <v>2.462184757981162</v>
       </c>
       <c r="E11">
-        <v>1.678433583880493</v>
+        <v>1.670736457539431</v>
       </c>
       <c r="F11">
-        <v>1.543089010683374</v>
+        <v>1.532756793977353</v>
       </c>
       <c r="G11">
-        <v>2.035832812967509</v>
+        <v>2.025370691254477</v>
       </c>
       <c r="H11">
-        <v>1.679974215514524</v>
+        <v>1.671843872822301</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.282113650074564</v>
+        <v>1.275774180011838</v>
       </c>
       <c r="C12">
-        <v>2.067792022519864</v>
+        <v>2.058589535148215</v>
       </c>
       <c r="D12">
-        <v>0.6521125599187504</v>
+        <v>0.6115296961620851</v>
       </c>
       <c r="E12">
-        <v>1.626389927791972</v>
+        <v>1.617529040115271</v>
       </c>
       <c r="F12">
-        <v>1.287674515610658</v>
+        <v>1.280968368999795</v>
       </c>
       <c r="G12">
-        <v>1.905243481774686</v>
+        <v>1.892787997103477</v>
       </c>
       <c r="H12">
-        <v>1.626474371498642</v>
+        <v>1.617368168486356</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.567267403978091</v>
+        <v>1.559307860733568</v>
       </c>
       <c r="C13">
-        <v>2.086953281407617</v>
+        <v>2.079739547593903</v>
       </c>
       <c r="D13">
-        <v>2.294162351609225</v>
+        <v>2.167242324121294</v>
       </c>
       <c r="E13">
-        <v>1.666206264672972</v>
+        <v>1.658285052561531</v>
       </c>
       <c r="F13">
-        <v>1.573566933273717</v>
+        <v>1.565073904619898</v>
       </c>
       <c r="G13">
-        <v>2.002758343647788</v>
+        <v>1.989697056952977</v>
       </c>
       <c r="H13">
-        <v>1.668071903064024</v>
+        <v>1.659963471116276</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.809441918582433</v>
+        <v>1.809441918582434</v>
       </c>
       <c r="C2">
-        <v>1.773799324762276</v>
+        <v>1.773799324762277</v>
       </c>
       <c r="D2">
-        <v>6.212147121844095</v>
+        <v>6.212147121844101</v>
       </c>
       <c r="E2">
-        <v>1.700078601593715</v>
+        <v>1.700078601593717</v>
       </c>
       <c r="F2">
-        <v>1.807629892617897</v>
+        <v>1.807629892617899</v>
       </c>
       <c r="G2">
-        <v>2.002151662949331</v>
+        <v>2.002151662949332</v>
       </c>
       <c r="H2">
-        <v>1.700317937929734</v>
+        <v>1.700317937929736</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.820836472639407</v>
+        <v>1.820836472639406</v>
       </c>
       <c r="C3">
-        <v>1.790830877570518</v>
+        <v>1.790830877570517</v>
       </c>
       <c r="D3">
-        <v>4.809282045285278</v>
+        <v>4.809282045285274</v>
       </c>
       <c r="E3">
-        <v>1.703624045046675</v>
+        <v>1.703624045046674</v>
       </c>
       <c r="F3">
-        <v>1.817304492547184</v>
+        <v>1.817304492547183</v>
       </c>
       <c r="G3">
         <v>1.971045113597998</v>
       </c>
       <c r="H3">
-        <v>1.703193982803089</v>
+        <v>1.703193982803088</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -455,22 +455,22 @@
         <v>1.782668010042132</v>
       </c>
       <c r="C4">
-        <v>1.860444782376231</v>
+        <v>1.860444782376233</v>
       </c>
       <c r="D4">
-        <v>5.544570533031403</v>
+        <v>5.544570533031406</v>
       </c>
       <c r="E4">
         <v>1.689118343792704</v>
       </c>
       <c r="F4">
-        <v>1.782010133492829</v>
+        <v>1.782010133492831</v>
       </c>
       <c r="G4">
-        <v>1.993043150492126</v>
+        <v>1.993043150492128</v>
       </c>
       <c r="H4">
-        <v>1.689607354824597</v>
+        <v>1.689607354824598</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.817028306682256</v>
+        <v>1.817028306682257</v>
       </c>
       <c r="C5">
         <v>1.998626836058858</v>
@@ -487,7 +487,7 @@
         <v>2.934576195968682</v>
       </c>
       <c r="E5">
-        <v>1.705623931229836</v>
+        <v>1.705623931229837</v>
       </c>
       <c r="F5">
         <v>1.812988199412726</v>
@@ -507,16 +507,16 @@
         <v>1.823976775771101</v>
       </c>
       <c r="C6">
-        <v>1.996492174193518</v>
+        <v>1.996492174193517</v>
       </c>
       <c r="D6">
-        <v>0.8753565019908757</v>
+        <v>0.8753565019908747</v>
       </c>
       <c r="E6">
         <v>1.709811521561945</v>
       </c>
       <c r="F6">
-        <v>1.819960065524298</v>
+        <v>1.819960065524299</v>
       </c>
       <c r="G6">
         <v>1.875463510908506</v>
@@ -536,7 +536,7 @@
         <v>2.082638963899223</v>
       </c>
       <c r="D7">
-        <v>1.219932049956222</v>
+        <v>1.219932049956221</v>
       </c>
       <c r="E7">
         <v>1.705657750267797</v>
@@ -556,13 +556,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.815118152670409</v>
+        <v>1.815118152670408</v>
       </c>
       <c r="C8">
         <v>1.331268593591207</v>
       </c>
       <c r="D8">
-        <v>1.962454242750496</v>
+        <v>1.962454242750494</v>
       </c>
       <c r="E8">
         <v>1.691569675101092</v>
@@ -585,22 +585,22 @@
         <v>1.820110013471357</v>
       </c>
       <c r="C9">
-        <v>1.862728241502911</v>
+        <v>1.862728241502912</v>
       </c>
       <c r="D9">
-        <v>1.489277673447328</v>
+        <v>1.489277673447329</v>
       </c>
       <c r="E9">
-        <v>1.699117520271848</v>
+        <v>1.699117520271849</v>
       </c>
       <c r="F9">
-        <v>1.816956055849428</v>
+        <v>1.816956055849429</v>
       </c>
       <c r="G9">
-        <v>1.812437534362181</v>
+        <v>1.812437534362182</v>
       </c>
       <c r="H9">
-        <v>1.699213878649833</v>
+        <v>1.699213878649834</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,22 +608,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.57578486270646</v>
+        <v>1.575784862706459</v>
       </c>
       <c r="C10">
         <v>2.084409928598445</v>
       </c>
       <c r="D10">
-        <v>3.052325732473214</v>
+        <v>3.05232573247321</v>
       </c>
       <c r="E10">
         <v>1.664463245616165</v>
       </c>
       <c r="F10">
-        <v>1.584180934600336</v>
+        <v>1.584180934600335</v>
       </c>
       <c r="G10">
-        <v>2.033644326230511</v>
+        <v>2.033644326230509</v>
       </c>
       <c r="H10">
         <v>1.667191889118646</v>
@@ -637,13 +637,13 @@
         <v>1.524747233310899</v>
       </c>
       <c r="C11">
-        <v>2.106358068430188</v>
+        <v>2.106358068430189</v>
       </c>
       <c r="D11">
-        <v>2.462184757981162</v>
+        <v>2.462184757981164</v>
       </c>
       <c r="E11">
-        <v>1.670736457539431</v>
+        <v>1.670736457539432</v>
       </c>
       <c r="F11">
         <v>1.532756793977353</v>
@@ -663,16 +663,16 @@
         <v>1.275774180011838</v>
       </c>
       <c r="C12">
-        <v>2.058589535148215</v>
+        <v>2.058589535148216</v>
       </c>
       <c r="D12">
-        <v>0.6115296961620851</v>
+        <v>0.6115296961620866</v>
       </c>
       <c r="E12">
         <v>1.617529040115271</v>
       </c>
       <c r="F12">
-        <v>1.280968368999795</v>
+        <v>1.280968368999796</v>
       </c>
       <c r="G12">
         <v>1.892787997103477</v>
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.559307860733568</v>
+        <v>1.559307860733567</v>
       </c>
       <c r="C13">
-        <v>2.079739547593903</v>
+        <v>2.079739547593902</v>
       </c>
       <c r="D13">
-        <v>2.167242324121294</v>
+        <v>2.16724232412129</v>
       </c>
       <c r="E13">
-        <v>1.658285052561531</v>
+        <v>1.65828505256153</v>
       </c>
       <c r="F13">
         <v>1.565073904619898</v>
       </c>
       <c r="G13">
-        <v>1.989697056952977</v>
+        <v>1.989697056952975</v>
       </c>
       <c r="H13">
-        <v>1.659963471116276</v>
+        <v>1.659963471116275</v>
       </c>
     </row>
   </sheetData>
